--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_3.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,496 +518,991 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_0</t>
+          <t>model_18_3_17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9253531600066429</v>
+        <v>0.9593457153208212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7494530648798281</v>
+        <v>0.7710168068635394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01875058658564244</v>
+        <v>0.03391932607537063</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9292241142109093</v>
+        <v>0.5426732491105309</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6752295556601917</v>
+        <v>0.4995498834172009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4991637627526721</v>
+        <v>0.271855388845437</v>
       </c>
       <c r="H2" t="n">
-        <v>1.675408508811146</v>
+        <v>1.531211666874167</v>
       </c>
       <c r="I2" t="n">
-        <v>2.313800037315106</v>
+        <v>0.3037335224391495</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4189991665644213</v>
+        <v>1.367309860014988</v>
       </c>
       <c r="K2" t="n">
-        <v>1.366400252635482</v>
+        <v>0.8355217926371876</v>
       </c>
       <c r="L2" t="n">
-        <v>1.361892441012924</v>
+        <v>2.178690450738507</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7065152247139987</v>
+        <v>0.5213975343683905</v>
       </c>
       <c r="N2" t="n">
-        <v>1.033802342638501</v>
+        <v>1.018409487401892</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7365930405182097</v>
+        <v>0.5435945068481423</v>
       </c>
       <c r="P2" t="n">
-        <v>155.3896421104029</v>
+        <v>156.6049700254464</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.2430806252543</v>
+        <v>250.4584085402978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_1</t>
+          <t>model_18_3_16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9259743996083234</v>
+        <v>0.959284883434015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7482204461488584</v>
+        <v>0.7703330796292335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01010824566057977</v>
+        <v>0.009256680226725211</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9245438268008154</v>
+        <v>0.5466176941581776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6695150379416774</v>
+        <v>0.5007596105574315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4950095306756894</v>
+        <v>0.2722621719526156</v>
       </c>
       <c r="H3" t="n">
-        <v>1.683651035940827</v>
+        <v>1.535783754038245</v>
       </c>
       <c r="I3" t="n">
-        <v>2.334178799820879</v>
+        <v>0.3114874010731639</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4467068596896634</v>
+        <v>1.355516807027282</v>
       </c>
       <c r="K3" t="n">
-        <v>1.390442829755271</v>
+        <v>0.833502104050223</v>
       </c>
       <c r="L3" t="n">
-        <v>1.379067106272283</v>
+        <v>2.184940560267635</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7035691370971935</v>
+        <v>0.5217874777652446</v>
       </c>
       <c r="N3" t="n">
-        <v>1.033521026592457</v>
+        <v>1.018437033916672</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7335215318523151</v>
+        <v>0.5440010509426945</v>
       </c>
       <c r="P3" t="n">
-        <v>155.406356525417</v>
+        <v>156.6019796188705</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.2597950402685</v>
+        <v>250.455418133722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_2</t>
+          <t>model_18_3_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9263152849854556</v>
+        <v>0.9591881257690544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7468097680299508</v>
+        <v>0.7695430358200688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002302763194911628</v>
+        <v>-0.01848549555890577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9199506292855364</v>
+        <v>0.5509001807832496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6640961509023995</v>
+        <v>0.501982058472074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4927300285891736</v>
+        <v>0.2729091909037343</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693084247017539</v>
+        <v>1.541066780627946</v>
       </c>
       <c r="I4" t="n">
-        <v>2.352584238207315</v>
+        <v>0.3202094767744248</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4738989733497135</v>
+        <v>1.342713081514933</v>
       </c>
       <c r="K4" t="n">
-        <v>1.413241605778515</v>
+        <v>0.8314611776137941</v>
       </c>
       <c r="L4" t="n">
-        <v>1.393403439854555</v>
+        <v>2.191394082860991</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7019473118327142</v>
+        <v>0.5224071122254504</v>
       </c>
       <c r="N4" t="n">
-        <v>1.033366663402812</v>
+        <v>1.018480848708353</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7318306621286856</v>
+        <v>0.5446470645246915</v>
       </c>
       <c r="P4" t="n">
-        <v>155.4155877285696</v>
+        <v>156.5972323463688</v>
       </c>
       <c r="Q4" t="n">
-        <v>249.269026243421</v>
+        <v>250.4506708612203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_3</t>
+          <t>model_18_3_14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9264421945048024</v>
+        <v>0.9590443581004401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7453020228134266</v>
+        <v>0.7686278046462597</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004852338240446397</v>
+        <v>-0.04972693090980718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9155270173802588</v>
+        <v>0.5555308704371889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6589788326429158</v>
+        <v>0.5031867442910047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4918813840489369</v>
+        <v>0.2738705659657479</v>
       </c>
       <c r="H5" t="n">
-        <v>1.703166546222965</v>
+        <v>1.54718693570146</v>
       </c>
       <c r="I5" t="n">
-        <v>2.369456068897658</v>
+        <v>0.3300317115642334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5000871260072313</v>
+        <v>1.328868302896175</v>
       </c>
       <c r="K5" t="n">
-        <v>1.434771597452444</v>
+        <v>0.8294499057174651</v>
       </c>
       <c r="L5" t="n">
-        <v>1.405247334813</v>
+        <v>2.197964507213281</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7013425582758663</v>
+        <v>0.5233264430217032</v>
       </c>
       <c r="N5" t="n">
-        <v>1.033309194941222</v>
+        <v>1.018545951048857</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7312001629609104</v>
+        <v>0.5456055331362177</v>
       </c>
       <c r="P5" t="n">
-        <v>155.4190353617759</v>
+        <v>156.5901993423805</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.2724738766273</v>
+        <v>250.443637857232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_4</t>
+          <t>model_18_3_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9264096377599739</v>
+        <v>0.9588398703082474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7437564018691929</v>
+        <v>0.7675648935480427</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01146854331759695</v>
+        <v>-0.08496137175536034</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9113289939464924</v>
+        <v>0.5605200082987954</v>
       </c>
       <c r="F6" t="n">
-        <v>0.654171242732509</v>
+        <v>0.5043362243290557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4920990911515155</v>
+        <v>0.2752379767737206</v>
       </c>
       <c r="H6" t="n">
-        <v>1.713502120593985</v>
+        <v>1.554294627109493</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3850571743303</v>
+        <v>0.3411093380172274</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5249397760356282</v>
+        <v>1.313951840262225</v>
       </c>
       <c r="K6" t="n">
-        <v>1.454998475182964</v>
+        <v>0.8275308021141912</v>
       </c>
       <c r="L6" t="n">
-        <v>1.414950665746953</v>
+        <v>2.204528210582715</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7014977485006745</v>
+        <v>0.5246312769686159</v>
       </c>
       <c r="N6" t="n">
-        <v>1.033323937618125</v>
+        <v>1.018638549294379</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7313619599548766</v>
+        <v>0.5469659165656292</v>
       </c>
       <c r="P6" t="n">
-        <v>155.4181503559791</v>
+        <v>156.5802383708923</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.2715888708305</v>
+        <v>250.4336768857437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_5</t>
+          <t>model_18_3_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9262606759930676</v>
+        <v>0.9585570250153768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7422155391349075</v>
+        <v>0.7663272861359508</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01761995489297963</v>
+        <v>-0.1247671858343717</v>
       </c>
       <c r="E7" t="n">
-        <v>0.907388691417641</v>
+        <v>0.5658658858732287</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6496752221595696</v>
+        <v>0.5053750157637626</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4930951991727235</v>
+        <v>0.2771293645495287</v>
       </c>
       <c r="H7" t="n">
-        <v>1.723805876793173</v>
+        <v>1.562570513572809</v>
       </c>
       <c r="I7" t="n">
-        <v>2.399562290091985</v>
+        <v>0.3536241936085931</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5482666967402342</v>
+        <v>1.297968801649812</v>
       </c>
       <c r="K7" t="n">
-        <v>1.473914493416109</v>
+        <v>0.8257964976292027</v>
       </c>
       <c r="L7" t="n">
-        <v>1.422846595602717</v>
+        <v>2.210939400386212</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7022073761879204</v>
+        <v>0.5264307784975425</v>
       </c>
       <c r="N7" t="n">
-        <v>1.033391392003139</v>
+        <v>1.018766630181716</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7321017979619003</v>
+        <v>0.5488420266001239</v>
       </c>
       <c r="P7" t="n">
-        <v>155.4141060436219</v>
+        <v>156.5665417235606</v>
       </c>
       <c r="Q7" t="n">
-        <v>249.2675445584734</v>
+        <v>250.4199802384121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_6</t>
+          <t>model_18_3_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9260289753563088</v>
+        <v>0.9581739547385422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7407090008073001</v>
+        <v>0.7648825786302157</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02335900851409689</v>
+        <v>-0.1698170178701959</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9037216737641918</v>
+        <v>0.5715614443276691</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6454869505733319</v>
+        <v>0.5062330205027696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4946445823976133</v>
+        <v>0.279690957254598</v>
       </c>
       <c r="H8" t="n">
-        <v>1.733880105526854</v>
+        <v>1.572231279315926</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4130950599476</v>
+        <v>0.3677877562787231</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5699757481133373</v>
+        <v>1.280940291469943</v>
       </c>
       <c r="K8" t="n">
-        <v>1.491535725437929</v>
+        <v>0.8243640238743328</v>
       </c>
       <c r="L8" t="n">
-        <v>1.429229960792336</v>
+        <v>2.216996918812759</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7033097343259321</v>
+        <v>0.5288581636456017</v>
       </c>
       <c r="N8" t="n">
-        <v>1.0334963130462</v>
+        <v>1.018940095967453</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7332510857680433</v>
+        <v>0.5513727505593159</v>
       </c>
       <c r="P8" t="n">
-        <v>155.4078315793366</v>
+        <v>156.5481400189112</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.261270094188</v>
+        <v>250.4015785337626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_3_7</t>
+          <t>model_18_3_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9257410106830478</v>
+        <v>0.9576631365933371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7392572545727135</v>
+        <v>0.7631920323478341</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02871886856044559</v>
+        <v>-0.2208949234971049</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9003315348912573</v>
+        <v>0.577585109680941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6415998919919681</v>
+        <v>0.5068171645286416</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4965702034936645</v>
+        <v>0.2831068005436859</v>
       </c>
       <c r="H9" t="n">
-        <v>1.743587939282211</v>
+        <v>1.583535970090463</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425733685974487</v>
+        <v>0.3838465312999134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5900456539359245</v>
+        <v>1.262930811344539</v>
       </c>
       <c r="K9" t="n">
-        <v>1.507889669955206</v>
+        <v>0.8233887717013743</v>
       </c>
       <c r="L9" t="n">
-        <v>1.434361260227184</v>
+        <v>2.222444154793294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7046773754660103</v>
+        <v>0.5320778143689943</v>
       </c>
       <c r="N9" t="n">
-        <v>1.033626712143525</v>
+        <v>1.019171409844527</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7346769502228621</v>
+        <v>0.5547294684795991</v>
       </c>
       <c r="P9" t="n">
-        <v>155.4000608174556</v>
+        <v>156.5238621309027</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.2534993323071</v>
+        <v>250.3773006457541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>model_18_3_9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9569901112363666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7612091465717267</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.2789280898196027</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.583899561539571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5070068510255958</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2876073242047443</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.596795536405642</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4020920241466158</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.244051941324137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8230720823916453</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.226967352799247</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5362903357368509</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.019476176043909</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5591213256032068</v>
+      </c>
+      <c r="P10" t="n">
+        <v>156.4923183736454</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>250.3457568884969</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>model_18_3_8</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.9254168884367471</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.737873529298483</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.03372482612485195</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8972121229317302</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6380024017466678</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4987376104471234</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.752840916562459</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.437537804928319</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6085128337760725</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.523025319352196</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.438469222818363</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7062135728284492</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.033773484481473</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.736278546687387</v>
-      </c>
-      <c r="P10" t="n">
-        <v>155.3913503045908</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>249.2447888194422</v>
+      <c r="B11" t="n">
+        <v>0.9561117278037369</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7588782681545783</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3450004398096</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5904427083087258</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5066442402928651</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2934810782633228</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.612382131113822</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4228650176863457</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.224489322090536</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8236774757353604</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.230182947053001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5417389392164115</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.01987393457944</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5648018874130564</v>
+      </c>
+      <c r="P11" t="n">
+        <v>156.4518842221649</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>250.3053227370163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9549743549001842</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7561327954797326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.4203976834316971</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5971270970460136</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5055303997472151</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3010866961065004</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.630741119532253</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4465697361489457</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.204504419368597</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8255370777587712</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.231639421803968</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5487136740655369</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.020388971365954</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5720735511644007</v>
+      </c>
+      <c r="P12" t="n">
+        <v>156.4007140575463</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>250.2541525723977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_6</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9535117261331086</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7528935238425193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.5065757809735272</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6038287392313502</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.503416732366336</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3108673014067209</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.652402143885774</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4736639300708156</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.184467932501206</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8290659312860111</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.230786595491482</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5575547519362748</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.021051293826517</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5812910120236501</v>
+      </c>
+      <c r="P13" t="n">
+        <v>156.3367782828758</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>250.1902167977273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9516417406103385</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7490667166145443</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.6052262486550062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6103775014570171</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4999918172024177</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3233719032079767</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.677992021440069</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5046794082269419</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.164888524245222</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8347839662360816</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.227005999763886</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5686579843877835</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.02189807972362</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5928669320674793</v>
+      </c>
+      <c r="P14" t="n">
+        <v>156.25790442999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>250.1113429448415</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9492641304184957</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.744542194341294</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7182047381134187</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6165511411309621</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4948819374636633</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.339270993508718</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.708247522714804</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5401995831867146</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.146430652751925</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8433151179693197</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.219601617315667</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5824697361311727</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.022974733395398</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6072666786768521</v>
+      </c>
+      <c r="P15" t="n">
+        <v>156.1619122001265</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>250.0153507149779</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9462570059185054</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7391925807276836</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.8474431572336401</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6220604761777249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4876462592048773</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3593796488866882</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.744020413581722</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.580831842306841</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.129958911011662</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8553953766592516</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.207824149462283</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5994828178410856</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.024336450150111</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6250040424970903</v>
+      </c>
+      <c r="P16" t="n">
+        <v>156.0467518629633</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>249.9001903778148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.942474877316379</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7328732075272937</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.9947160510896316</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6265468071566314</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4777965693469725</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.384670760264208</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.786278091270767</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6271340984413811</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.11654573417296</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8718398338674764</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.191274537595783</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6202183166145676</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.026049112158621</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6466222943817592</v>
+      </c>
+      <c r="P17" t="n">
+        <v>155.9107349574083</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>249.7641734722597</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9377472571956961</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7254253172784828</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.161208622721622</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6295779499681269</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4648341503424485</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4162843777799037</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.836082167658946</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6794789766763454</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.107483260908034</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8934811187921896</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.168514189842247</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6452010367163894</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.028189921269874</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6726685805996756</v>
+      </c>
+      <c r="P18" t="n">
+        <v>155.7527733036735</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>249.6062118185249</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_18_3_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9318807651807903</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7166837967835857</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.346669454656226</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6306645939138398</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.448344697994669</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4555136368962904</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.894536755459324</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7377874319414253</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.104234426287253</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9210109291143391</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.138463542756045</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6749175037708611</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.030846445955869</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.7036501391782233</v>
+      </c>
+      <c r="P19" t="n">
+        <v>155.5726592488577</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>249.4260977637092</v>
       </c>
     </row>
   </sheetData>
